--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E98050-02E7-47B6-9CBB-E27DC07097EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,8 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,13 +404,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -545,6 +551,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -869,158 +883,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="29" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14">
-      <c r="K2"/>
+    <row r="2" spans="2:13">
+      <c r="J2"/>
     </row>
-    <row r="3" spans="3:14">
-      <c r="K3"/>
+    <row r="3" spans="2:13">
+      <c r="J3"/>
     </row>
-    <row r="4" spans="3:14">
+    <row r="4" spans="2:13">
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="20" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="3:14" ht="16" thickBot="1">
-      <c r="C5" s="10"/>
-      <c r="D5" s="19" t="s">
+    <row r="5" spans="2:13" ht="16.5" thickBot="1">
+      <c r="B5" s="10"/>
+      <c r="C5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="L5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="18"/>
+      <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="3:14">
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+    <row r="6" spans="2:13">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="I6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L6" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:14">
-      <c r="C7" s="10"/>
+    <row r="7" spans="2:13">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H7" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L7" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" spans="3:14">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="2:13">
+      <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="2"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E98050-02E7-47B6-9CBB-E27DC07097EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -363,21 +362,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,16 +878,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J6" sqref="J4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="29" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
@@ -912,122 +907,122 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="20"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED8BF3B-810A-461E-9801-F8634C346725}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -362,7 +363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -408,6 +409,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -878,11 +880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J6" sqref="J4:J7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -901,9 +903,9 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED8BF3B-810A-461E-9801-F8634C346725}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B8D801-88ED-4142-89BA-4610D0DC224C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Assets</t>
   </si>
@@ -48,45 +48,9 @@
     <t>Expenses</t>
   </si>
   <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Retained</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Supplies</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>Receivable</t>
-  </si>
-  <si>
-    <t>Payable</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Earned</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
     <t></t>
   </si>
   <si>
@@ -94,25 +58,41 @@
   </si>
   <si>
     <t>Issue stock for cash</t>
+  </si>
+  <si>
+    <t>Accounting Equation</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Common 
+Stock</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
+  </si>
+  <si>
+    <t>Rent Expense</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -138,36 +118,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="Wingdings"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -193,11 +191,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
+      <top style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
       </bottom>
       <diagonal/>
     </border>
@@ -205,213 +222,218 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="4" tint="0.59999389629810485"/>
       </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="5" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="5" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="133" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="1" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="134">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -545,9 +567,15 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="133" xr:uid="{2EDC0A5A-BE99-4F69-A867-EF9696B7F94F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCE3F2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -881,160 +909,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M8"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="J2"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
-    <row r="3" spans="2:13">
-      <c r="J3"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="16"/>
     </row>
-    <row r="4" spans="2:13">
-      <c r="C4" s="3"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B5" s="8"/>
-      <c r="C5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="L5:M5"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B8D801-88ED-4142-89BA-4610D0DC224C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Assets</t>
   </si>
@@ -58,9 +57,6 @@
   </si>
   <si>
     <t>Issue stock for cash</t>
-  </si>
-  <si>
-    <t>Accounting Equation</t>
   </si>
   <si>
     <t>Accounts Receivable</t>
@@ -85,8 +81,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,23 +134,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -167,6 +159,12 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -182,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -192,29 +190,135 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,24 +326,35 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
       <right style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -249,176 +364,220 @@
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="134">
+  <cellStyleXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="0" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="5" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="5" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="4" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="5" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="133" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="14" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="15" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="2" borderId="7" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="133" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="1" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,14 +585,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="134">
+  <cellStyles count="154">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -500,6 +668,16 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -566,8 +744,18 @@
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="133" xr:uid="{2EDC0A5A-BE99-4F69-A867-EF9696B7F94F}"/>
+    <cellStyle name="Normal 2" xfId="133"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -908,11 +1096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -924,104 +1112,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="16" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="10" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1031,11 +1217,15 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup scale="67" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -56,9 +56,6 @@
     <t>Retained Earnings</t>
   </si>
   <si>
-    <t>Issue stock for cash</t>
-  </si>
-  <si>
     <t>Accounts Receivable</t>
   </si>
   <si>
@@ -76,13 +73,16 @@
   </si>
   <si>
     <t>Supplies Expense</t>
+  </si>
+  <si>
+    <t>Issue Stock for Cash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,19 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,9 +136,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
       <name val="Wingdings"/>
-      <charset val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -160,10 +146,15 @@
       <charset val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Wingdings"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -190,17 +181,30 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -220,6 +224,107 @@
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -233,15 +338,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
@@ -259,102 +355,12 @@
       <right style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -373,7 +379,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="154">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -507,21 +513,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -533,75 +527,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="8" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="0" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="5" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="13" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="4" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="16" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="133" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="14" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="15" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="2" borderId="7" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="133" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="154">
+  <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -668,16 +662,10 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -744,26 +732,15 @@
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="133"/>
+    <cellStyle name="Normal 2" xfId="135"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFCCE3F2"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1099,11 +1076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
@@ -1111,121 +1088,117 @@
     <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="21" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="25"/>
+      <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:12" ht="31.5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="33" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="10" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="67" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="1048575" man="1"/>
-  </colBreaks>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E16440-A0C0-4B33-859C-893C57120600}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Assets</t>
   </si>
@@ -48,9 +49,6 @@
   </si>
   <si>
     <t>Cash</t>
-  </si>
-  <si>
-    <t></t>
   </si>
   <si>
     <t>Retained Earnings</t>
@@ -75,16 +73,29 @@
     <t>Supplies Expense</t>
   </si>
   <si>
-    <t>Issue Stock for Cash</t>
+    <t>Issue Stock for Cash, $4000</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t></t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -136,25 +147,37 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Wingdings"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF8DB4E2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF008000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF008000"/>
-      <name val="Wingdings"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,111 +189,15 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCE3F2"/>
+        <fgColor rgb="FFD0F3FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="8">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -286,313 +213,278 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
         <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
+      <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
+      <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="8" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="13" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="16" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -737,10 +629,18 @@
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="135"/>
+    <cellStyle name="Normal 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD0F3FC"/>
+      <color rgb="FF8DB4E2"/>
+      <color rgb="FFFEF1E6"/>
+      <color rgb="FFFEF4EC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1073,129 +973,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.375" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="1.375" customWidth="1"/>
+    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="23" t="s">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
+      <c r="F3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="20"/>
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="18"/>
     </row>
-    <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="22"/>
+      <c r="E5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="Q5" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:L1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A4" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E16440-A0C0-4B33-859C-893C57120600}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E798F76-40D7-4C53-BC79-670B705F28AD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,8 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF008000"/>
+      <sz val="13"/>
+      <color rgb="FF20793E"/>
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
@@ -414,7 +414,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -479,9 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,6 +632,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FF20793E"/>
       <color rgb="FFD0F3FC"/>
       <color rgb="FF8DB4E2"/>
       <color rgb="FFFEF1E6"/>
@@ -977,7 +975,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1096,7 @@
       <c r="E4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="6"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E798F76-40D7-4C53-BC79-670B705F28AD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65944CB9-E109-4C0E-8191-46A509F4BE4B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -73,13 +73,13 @@
     <t>Supplies Expense</t>
   </si>
   <si>
-    <t>Issue Stock for Cash, $4000</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
     <t></t>
+  </si>
+  <si>
+    <t>Issue Stock for Cash</t>
   </si>
 </sst>
 </file>
@@ -468,6 +468,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,9 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -993,32 +993,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1028,24 +1028,24 @@
       <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="11"/>
       <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
@@ -1084,20 +1084,20 @@
     </row>
     <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="27" t="s">
-        <v>17</v>
+      <c r="I4" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="18"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65944CB9-E109-4C0E-8191-46A509F4BE4B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43C607A-C04B-BA49-8C1E-1AC67A650915}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Assets</t>
   </si>
@@ -414,7 +414,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,6 +482,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -975,24 +978,24 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="24"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -1004,15 +1007,13 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24"/>
       <c r="C2" s="25" t="s">
         <v>0</v>
@@ -1044,7 +1045,7 @@
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="C3" s="21" t="s">
         <v>7</v>
@@ -1082,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
@@ -1108,7 +1109,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C5" s="22"/>
       <c r="E5" s="19"/>
       <c r="G5" s="19"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_1_Arrows.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43C607A-C04B-BA49-8C1E-1AC67A650915}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066EF0E-557C-7D45-8FC0-B06E069DC717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Assets</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Cash</t>
-  </si>
-  <si>
-    <t>Retained Earnings</t>
   </si>
   <si>
     <t>Accounts Receivable</t>
@@ -86,16 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -272,219 +262,216 @@
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -975,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,144 +975,133 @@
     <col min="4" max="4" width="1.33203125" customWidth="1"/>
     <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="1.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+    <row r="2" spans="1:15" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="26" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22"/>
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="16"/>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C5" s="22"/>
-      <c r="E5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="Q5" s="19"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C5" s="20"/>
+      <c r="E5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
